--- a/DBFieldsDataType/Genome_file_paths_types.xlsx
+++ b/DBFieldsDataType/Genome_file_paths_types.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\DBFieldsDataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\DBFieldsDataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B1B84-9D88-401C-8FDC-48DA52C91435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>key</t>
   </si>
@@ -59,9 +60,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>file_path</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -78,12 +76,18 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -162,6 +177,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,27 +464,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -487,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -511,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -519,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -527,43 +548,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
